--- a/Assets/Tables/item.xlsx
+++ b/Assets/Tables/item.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3FD2D7-17D2-48D9-9A70-9FC446A6E6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB7DE17-6548-4C50-BCF6-EF79A54231EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="3" r:id="rId1"/>
-    <sheet name="~확률" sheetId="4" r:id="rId2"/>
+    <sheet name="item" sheetId="3" r:id="rId1"/>
+    <sheet name="_확률" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,34 +28,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="184">
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>통상 가챠</t>
   </si>
   <si>
     <t>프랜드 가챠</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>itemType</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Rarity</t>
-  </si>
-  <si>
-    <t>ItemIcon</t>
-  </si>
-  <si>
-    <t>BackgroundIcon</t>
   </si>
   <si>
     <t>고블린 마법사 영혼석</t>
@@ -579,6 +555,38 @@
   </si>
   <si>
     <t>_비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroundIcon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C56EC5-071B-4424-9897-09B3F3927BB2}">
   <dimension ref="A2:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -928,31 +936,31 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -960,13 +968,13 @@
         <v>2101001</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -975,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -986,13 +994,13 @@
         <v>2101002</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1001,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1012,13 +1020,13 @@
         <v>2102001</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1027,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1038,13 +1046,13 @@
         <v>2102002</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1053,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1064,13 +1072,13 @@
         <v>2103001</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1079,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1090,13 +1098,13 @@
         <v>2103002</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1105,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1116,13 +1124,13 @@
         <v>2104001</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1131,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1142,13 +1150,13 @@
         <v>2104002</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1157,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1168,13 +1176,13 @@
         <v>2105001</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1183,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1194,13 +1202,13 @@
         <v>2105002</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1209,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1220,13 +1228,13 @@
         <v>2201001</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1235,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1246,13 +1254,13 @@
         <v>2201002</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1261,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1272,13 +1280,13 @@
         <v>2202001</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1287,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1298,13 +1306,13 @@
         <v>2202002</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1313,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1324,13 +1332,13 @@
         <v>2203001</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1339,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1350,13 +1358,13 @@
         <v>2203002</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1365,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1376,13 +1384,13 @@
         <v>2204001</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1391,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1402,13 +1410,13 @@
         <v>2204002</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1417,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1428,13 +1436,13 @@
         <v>2205001</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1443,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1454,13 +1462,13 @@
         <v>2205002</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1469,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1480,13 +1488,13 @@
         <v>2301001</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1495,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1506,13 +1514,13 @@
         <v>2301002</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1521,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1532,13 +1540,13 @@
         <v>2302001</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1547,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1558,25 +1566,25 @@
         <v>2302002</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1584,13 +1592,13 @@
         <v>2303001</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1599,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1610,13 +1618,13 @@
         <v>2303002</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1625,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1636,13 +1644,13 @@
         <v>2304001</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1651,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1662,13 +1670,13 @@
         <v>2304002</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -1677,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1688,25 +1696,25 @@
         <v>2305001</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>12</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1714,13 +1722,13 @@
         <v>2305002</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1729,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1740,13 +1748,13 @@
         <v>2401001</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -1755,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1766,13 +1774,13 @@
         <v>2401002</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -1781,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1792,13 +1800,13 @@
         <v>2402001</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -1807,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1818,25 +1826,25 @@
         <v>2402002</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>12</v>
       </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1844,13 +1852,13 @@
         <v>2403001</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -1859,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1870,13 +1878,13 @@
         <v>2403002</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -1885,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1896,13 +1904,13 @@
         <v>2404001</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -1911,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1922,13 +1930,13 @@
         <v>2404002</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -1937,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1948,25 +1956,25 @@
         <v>2405001</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
         <v>12</v>
       </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1974,13 +1982,13 @@
         <v>2405002</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -1989,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2000,13 +2008,13 @@
         <v>2411001</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -2015,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2026,13 +2034,13 @@
         <v>2412001</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -2041,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2052,13 +2060,13 @@
         <v>2413001</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -2067,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2078,25 +2086,25 @@
         <v>2414001</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
         <v>12</v>
       </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2104,13 +2112,13 @@
         <v>2415001</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -2119,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2130,10 +2138,10 @@
         <v>21001</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2142,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2153,10 +2161,10 @@
         <v>21002</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2165,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2176,10 +2184,10 @@
         <v>21003</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2188,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2199,10 +2207,10 @@
         <v>21004</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2211,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2222,10 +2230,10 @@
         <v>21005</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2234,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2245,10 +2253,10 @@
         <v>21006</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2257,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2268,10 +2276,10 @@
         <v>21007</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2280,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2291,10 +2299,10 @@
         <v>21008</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2303,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2314,10 +2322,10 @@
         <v>21009</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2326,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2337,10 +2345,10 @@
         <v>21010</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2349,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2360,10 +2368,10 @@
         <v>21011</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2372,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2383,10 +2391,10 @@
         <v>21012</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2395,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2406,10 +2414,10 @@
         <v>21013</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2418,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2429,10 +2437,10 @@
         <v>21014</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2441,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2452,10 +2460,10 @@
         <v>21015</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2464,10 +2472,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2475,10 +2483,10 @@
         <v>21016</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2487,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2498,10 +2506,10 @@
         <v>21017</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2510,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2521,10 +2529,10 @@
         <v>21018</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2533,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2544,10 +2552,10 @@
         <v>21019</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2556,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2567,10 +2575,10 @@
         <v>21020</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2579,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2590,10 +2598,10 @@
         <v>21021</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2602,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2613,10 +2621,10 @@
         <v>22001</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2625,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2636,10 +2644,10 @@
         <v>22002</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2648,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2659,10 +2667,10 @@
         <v>22003</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2671,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2682,10 +2690,10 @@
         <v>22004</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2694,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2705,10 +2713,10 @@
         <v>22005</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2717,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2728,10 +2736,10 @@
         <v>22006</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2740,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2751,10 +2759,10 @@
         <v>22007</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2763,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2774,10 +2782,10 @@
         <v>22008</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -2786,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2797,10 +2805,10 @@
         <v>22009</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2809,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2820,10 +2828,10 @@
         <v>22010</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2832,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2843,10 +2851,10 @@
         <v>22011</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2855,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2866,10 +2874,10 @@
         <v>22012</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D80" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2878,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2889,10 +2897,10 @@
         <v>22013</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2901,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2912,10 +2920,10 @@
         <v>22014</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2924,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2935,10 +2943,10 @@
         <v>22015</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D83" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2947,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2958,10 +2966,10 @@
         <v>22016</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D84" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -2970,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2981,10 +2989,10 @@
         <v>22017</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -2993,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3004,10 +3012,10 @@
         <v>23001</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E86">
         <v>3</v>
@@ -3016,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3027,10 +3035,10 @@
         <v>23002</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D87" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -3039,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3050,10 +3058,10 @@
         <v>23003</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D88" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -3062,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3073,10 +3081,10 @@
         <v>23004</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -3085,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3096,10 +3104,10 @@
         <v>23005</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E90">
         <v>3</v>
@@ -3108,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -3119,10 +3127,10 @@
         <v>23006</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E91">
         <v>3</v>
@@ -3131,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3142,10 +3150,10 @@
         <v>23007</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D92" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -3154,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3165,10 +3173,10 @@
         <v>23008</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E93">
         <v>3</v>
@@ -3177,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3188,10 +3196,10 @@
         <v>23009</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -3200,10 +3208,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3211,10 +3219,10 @@
         <v>23010</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D95" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -3223,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3234,10 +3242,10 @@
         <v>24001</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D96" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -3246,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3257,10 +3265,10 @@
         <v>24002</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D97" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -3269,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3280,10 +3288,10 @@
         <v>24003</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D98" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -3292,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3303,10 +3311,10 @@
         <v>24004</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D99" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -3315,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3326,13 +3334,13 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D100" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3341,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3349,13 +3357,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C101" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -3364,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3372,13 +3380,13 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D102" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -3387,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3395,13 +3403,13 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C103" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D103" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E103">
         <v>4</v>
@@ -3410,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3418,13 +3426,13 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E104">
         <v>5</v>
@@ -3433,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3446,24 +3454,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAACE5B8-23C3-488B-B50E-6BEB56FB005C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
@@ -3591,16 +3599,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E8" s="1">
         <v>1000000</v>

--- a/Assets/Tables/item.xlsx
+++ b/Assets/Tables/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB7DE17-6548-4C50-BCF6-EF79A54231EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07452ED-9E5C-4241-8FB2-56BD4FA010EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="185">
   <si>
     <t>통상 가챠</t>
   </si>
@@ -34,9 +34,6 @@
     <t>프랜드 가챠</t>
   </si>
   <si>
-    <t>고블린 마법사 영혼석</t>
-  </si>
-  <si>
     <t>영혼석이다.</t>
   </si>
   <si>
@@ -49,15 +46,9 @@
     <t>null</t>
   </si>
   <si>
-    <t>변절한 마법사 영혼석</t>
-  </si>
-  <si>
     <t>wichi</t>
   </si>
   <si>
-    <t>고블린 마녀 영혼석</t>
-  </si>
-  <si>
     <t>pigeon</t>
   </si>
   <si>
@@ -502,9 +493,6 @@
     <t>Spirits_Legendary_SisterAgatha</t>
   </si>
   <si>
-    <t>TheLich</t>
-  </si>
-  <si>
     <t>Spirits_Legendary_TheLich</t>
   </si>
   <si>
@@ -548,10 +536,6 @@
   </si>
   <si>
     <t>비중값</t>
-  </si>
-  <si>
-    <t>영혼석이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_비고</t>
@@ -562,18 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,11 +554,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemIcon</t>
+    <t>backgroundIcon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>backgroundIcon</t>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptionKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$고블린 마법사 영혼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$영혼석이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$변절한 마법사 영혼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 마녀 영혼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheLich</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C56EC5-071B-4424-9897-09B3F3927BB2}">
   <dimension ref="A2:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -936,31 +944,31 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
         <v>176</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
         <v>177</v>
       </c>
-      <c r="C2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" t="s">
-        <v>182</v>
-      </c>
       <c r="H2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -968,13 +976,13 @@
         <v>2101001</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -983,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -994,13 +1002,13 @@
         <v>2101002</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1009,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1020,13 +1028,13 @@
         <v>2102001</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1035,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1046,13 +1054,13 @@
         <v>2102002</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1061,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1072,13 +1080,13 @@
         <v>2103001</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1087,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1098,13 +1106,13 @@
         <v>2103002</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1113,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1124,13 +1132,13 @@
         <v>2104001</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1139,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1150,13 +1158,13 @@
         <v>2104002</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1165,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1176,13 +1184,13 @@
         <v>2105001</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1191,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1202,13 +1210,13 @@
         <v>2105002</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1217,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1228,25 +1236,25 @@
         <v>2201001</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1254,13 +1262,13 @@
         <v>2201002</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1269,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1280,13 +1288,13 @@
         <v>2202001</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1295,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1306,13 +1314,13 @@
         <v>2202002</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1321,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1332,13 +1340,13 @@
         <v>2203001</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1347,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1358,25 +1366,25 @@
         <v>2203002</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>4</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
       <c r="H18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1384,13 +1392,13 @@
         <v>2204001</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1399,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1410,13 +1418,13 @@
         <v>2204002</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1425,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1436,13 +1444,13 @@
         <v>2205001</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1451,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1462,13 +1470,13 @@
         <v>2205002</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1477,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1488,25 +1496,25 @@
         <v>2301001</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
         <v>4</v>
       </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
       <c r="H23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1514,13 +1522,13 @@
         <v>2301002</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1529,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1540,13 +1548,13 @@
         <v>2302001</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1555,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1566,13 +1574,13 @@
         <v>2302002</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -1581,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1592,13 +1600,13 @@
         <v>2303001</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1607,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1618,25 +1626,25 @@
         <v>2303002</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
         <v>4</v>
       </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1644,13 +1652,13 @@
         <v>2304001</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1659,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1670,13 +1678,13 @@
         <v>2304002</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -1685,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1696,13 +1704,13 @@
         <v>2305001</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1711,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1722,13 +1730,13 @@
         <v>2305002</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1737,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1748,13 +1756,13 @@
         <v>2401001</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -1763,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1774,13 +1782,13 @@
         <v>2401002</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -1789,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1800,13 +1808,13 @@
         <v>2402001</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -1815,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1826,13 +1834,13 @@
         <v>2402002</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -1841,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1852,13 +1860,13 @@
         <v>2403001</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -1867,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1878,13 +1886,13 @@
         <v>2403002</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -1893,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1904,13 +1912,13 @@
         <v>2404001</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -1919,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1930,13 +1938,13 @@
         <v>2404002</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -1945,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1956,13 +1964,13 @@
         <v>2405001</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -1971,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1982,13 +1990,13 @@
         <v>2405002</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -1997,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2008,13 +2016,13 @@
         <v>2411001</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -2023,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2034,13 +2042,13 @@
         <v>2412001</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -2049,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2060,13 +2068,13 @@
         <v>2413001</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -2075,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2086,13 +2094,13 @@
         <v>2414001</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -2101,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2112,13 +2120,13 @@
         <v>2415001</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -2127,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2138,10 +2146,10 @@
         <v>21001</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2150,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2161,10 +2169,10 @@
         <v>21002</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2173,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2184,10 +2192,10 @@
         <v>21003</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2196,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2207,10 +2215,10 @@
         <v>21004</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2219,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2230,10 +2238,10 @@
         <v>21005</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2242,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2253,10 +2261,10 @@
         <v>21006</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2265,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2276,10 +2284,10 @@
         <v>21007</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2288,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2299,10 +2307,10 @@
         <v>21008</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2311,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2322,10 +2330,10 @@
         <v>21009</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2334,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2345,10 +2353,10 @@
         <v>21010</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2357,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2368,10 +2376,10 @@
         <v>21011</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2380,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2391,10 +2399,10 @@
         <v>21012</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2403,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2414,10 +2422,10 @@
         <v>21013</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2426,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2437,10 +2445,10 @@
         <v>21014</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2449,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2460,10 +2468,10 @@
         <v>21015</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2472,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2483,10 +2491,10 @@
         <v>21016</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2495,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2506,10 +2514,10 @@
         <v>21017</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2518,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2529,10 +2537,10 @@
         <v>21018</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2541,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2552,10 +2560,10 @@
         <v>21019</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2564,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2575,10 +2583,10 @@
         <v>21020</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2587,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2598,10 +2606,10 @@
         <v>21021</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2610,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2621,10 +2629,10 @@
         <v>22001</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2633,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2644,10 +2652,10 @@
         <v>22002</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2656,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2667,10 +2675,10 @@
         <v>22003</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2679,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2690,10 +2698,10 @@
         <v>22004</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2702,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2713,10 +2721,10 @@
         <v>22005</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2725,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2736,10 +2744,10 @@
         <v>22006</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2748,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2759,10 +2767,10 @@
         <v>22007</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2771,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2782,10 +2790,10 @@
         <v>22008</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -2794,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2805,10 +2813,10 @@
         <v>22009</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2817,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2828,10 +2836,10 @@
         <v>22010</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2840,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2851,10 +2859,10 @@
         <v>22011</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2863,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2874,10 +2882,10 @@
         <v>22012</v>
       </c>
       <c r="B80" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2886,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2897,10 +2905,10 @@
         <v>22013</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2909,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2920,10 +2928,10 @@
         <v>22014</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2932,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2943,10 +2951,10 @@
         <v>22015</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2955,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2966,10 +2974,10 @@
         <v>22016</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D84" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -2978,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2989,10 +2997,10 @@
         <v>22017</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -3001,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3012,10 +3020,10 @@
         <v>23001</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D86" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E86">
         <v>3</v>
@@ -3024,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3035,10 +3043,10 @@
         <v>23002</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -3047,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3058,10 +3066,10 @@
         <v>23003</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -3070,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3081,10 +3089,10 @@
         <v>23004</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D89" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -3093,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3104,10 +3112,10 @@
         <v>23005</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D90" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E90">
         <v>3</v>
@@ -3116,10 +3124,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -3127,10 +3135,10 @@
         <v>23006</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E91">
         <v>3</v>
@@ -3139,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3150,10 +3158,10 @@
         <v>23007</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -3162,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3173,10 +3181,10 @@
         <v>23008</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E93">
         <v>3</v>
@@ -3185,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3196,10 +3204,10 @@
         <v>23009</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -3208,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3219,10 +3227,10 @@
         <v>23010</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -3231,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3242,10 +3250,10 @@
         <v>24001</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -3254,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3265,10 +3273,10 @@
         <v>24002</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D97" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -3277,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3288,10 +3296,10 @@
         <v>24003</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D98" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -3300,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3311,10 +3319,10 @@
         <v>24004</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D99" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -3323,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3334,13 +3342,13 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D100" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3349,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3357,13 +3365,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D101" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -3372,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3380,13 +3388,13 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -3395,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3403,13 +3411,13 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C103" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E103">
         <v>4</v>
@@ -3418,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3426,13 +3434,13 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C104" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D104" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E104">
         <v>5</v>
@@ -3441,12 +3449,13 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3454,7 +3463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAACE5B8-23C3-488B-B50E-6BEB56FB005C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -3465,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
@@ -3602,13 +3611,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1">
         <v>1000000</v>
